--- a/Code/Results/Cases/Case_4_102/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_102/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9892820813855426</v>
+        <v>1.023937109182996</v>
       </c>
       <c r="D2">
-        <v>1.009720730942823</v>
+        <v>1.028192664279999</v>
       </c>
       <c r="E2">
-        <v>0.9975318946475888</v>
+        <v>1.027561751191078</v>
       </c>
       <c r="F2">
-        <v>0.9983480673378503</v>
+        <v>1.034328969650337</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04134440969551</v>
+        <v>1.031056677312877</v>
       </c>
       <c r="J2">
-        <v>1.01178815858496</v>
+        <v>1.029114530096275</v>
       </c>
       <c r="K2">
-        <v>1.021046281538548</v>
+        <v>1.031010195307241</v>
       </c>
       <c r="L2">
-        <v>1.009025721529081</v>
+        <v>1.030381119595177</v>
       </c>
       <c r="M2">
-        <v>1.009830464282868</v>
+        <v>1.037128757269461</v>
       </c>
       <c r="N2">
-        <v>1.013225013823874</v>
+        <v>1.030575990770102</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9945553687536014</v>
+        <v>1.025020265068463</v>
       </c>
       <c r="D3">
-        <v>1.013533072673712</v>
+        <v>1.028978776059872</v>
       </c>
       <c r="E3">
-        <v>1.00228271597859</v>
+        <v>1.028592414181948</v>
       </c>
       <c r="F3">
-        <v>1.004326050979737</v>
+        <v>1.035614902369841</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042969716332075</v>
+        <v>1.031294541125095</v>
       </c>
       <c r="J3">
-        <v>1.015195568444475</v>
+        <v>1.029835686314637</v>
       </c>
       <c r="K3">
-        <v>1.0239956747813</v>
+        <v>1.031604249765691</v>
       </c>
       <c r="L3">
-        <v>1.012886472113467</v>
+        <v>1.031218931341415</v>
       </c>
       <c r="M3">
-        <v>1.014903876816142</v>
+        <v>1.038222585196461</v>
       </c>
       <c r="N3">
-        <v>1.016637262596225</v>
+        <v>1.031298171113008</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9978859742614589</v>
+        <v>1.025720946000182</v>
       </c>
       <c r="D4">
-        <v>1.015941655233531</v>
+        <v>1.029486937832025</v>
       </c>
       <c r="E4">
-        <v>1.005288962913665</v>
+        <v>1.029259498675032</v>
       </c>
       <c r="F4">
-        <v>1.008101818480419</v>
+        <v>1.036446773265837</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043981082607015</v>
+        <v>1.031446536856227</v>
       </c>
       <c r="J4">
-        <v>1.01734391206049</v>
+        <v>1.030301601551921</v>
       </c>
       <c r="K4">
-        <v>1.025851411788985</v>
+        <v>1.031987485753661</v>
       </c>
       <c r="L4">
-        <v>1.015323971195605</v>
+        <v>1.031760629780278</v>
       </c>
       <c r="M4">
-        <v>1.018103435326616</v>
+        <v>1.03892960864476</v>
       </c>
       <c r="N4">
-        <v>1.018788657106593</v>
+        <v>1.03176474800337</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9992674599018511</v>
+        <v>1.026015466899278</v>
       </c>
       <c r="D5">
-        <v>1.01694079477637</v>
+        <v>1.029700447958536</v>
       </c>
       <c r="E5">
-        <v>1.006537215524594</v>
+        <v>1.029539983650587</v>
       </c>
       <c r="F5">
-        <v>1.009668004438343</v>
+        <v>1.036796442503283</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044396886438286</v>
+        <v>1.031509976635423</v>
       </c>
       <c r="J5">
-        <v>1.018234068684605</v>
+        <v>1.030497300024079</v>
       </c>
       <c r="K5">
-        <v>1.026619385540406</v>
+        <v>1.032148321233604</v>
       </c>
       <c r="L5">
-        <v>1.016334740075349</v>
+        <v>1.031988259174042</v>
       </c>
       <c r="M5">
-        <v>1.019429419508124</v>
+        <v>1.039226661693735</v>
       </c>
       <c r="N5">
-        <v>1.019680077855217</v>
+        <v>1.031960724389806</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9994983438459106</v>
+        <v>1.026064915620821</v>
       </c>
       <c r="D6">
-        <v>1.017107781735245</v>
+        <v>1.029736290143208</v>
       </c>
       <c r="E6">
-        <v>1.006745908124187</v>
+        <v>1.029587080824179</v>
       </c>
       <c r="F6">
-        <v>1.009929760989058</v>
+        <v>1.036855150670019</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044466159734383</v>
+        <v>1.031520601523029</v>
       </c>
       <c r="J6">
-        <v>1.018382781516572</v>
+        <v>1.030530148564763</v>
       </c>
       <c r="K6">
-        <v>1.026747629945308</v>
+        <v>1.032175309980485</v>
       </c>
       <c r="L6">
-        <v>1.016503650102572</v>
+        <v>1.032026473259847</v>
       </c>
       <c r="M6">
-        <v>1.019650960524072</v>
+        <v>1.039276527717913</v>
       </c>
       <c r="N6">
-        <v>1.019829001876464</v>
+        <v>1.031993619579185</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9979045061669035</v>
+        <v>1.025724881579952</v>
       </c>
       <c r="D7">
-        <v>1.015955057886536</v>
+        <v>1.029489791240775</v>
       </c>
       <c r="E7">
-        <v>1.005305702462179</v>
+        <v>1.029263246360946</v>
       </c>
       <c r="F7">
-        <v>1.008122827786329</v>
+        <v>1.036451445754685</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043986675079321</v>
+        <v>1.03144738634617</v>
       </c>
       <c r="J7">
-        <v>1.017355856828337</v>
+        <v>1.030304217161084</v>
       </c>
       <c r="K7">
-        <v>1.025861720777238</v>
+        <v>1.031989635933315</v>
       </c>
       <c r="L7">
-        <v>1.015337531249506</v>
+        <v>1.031763671770366</v>
       </c>
       <c r="M7">
-        <v>1.018121227226405</v>
+        <v>1.038933578586068</v>
       </c>
       <c r="N7">
-        <v>1.018800618837381</v>
+        <v>1.031767367326998</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9910816156744594</v>
+        <v>1.024303207379277</v>
       </c>
       <c r="D8">
-        <v>1.011021514562806</v>
+        <v>1.028458438932744</v>
       </c>
       <c r="E8">
-        <v>0.9991519229822323</v>
+        <v>1.027910032229829</v>
       </c>
       <c r="F8">
-        <v>1.000388089113261</v>
+        <v>1.034763601962217</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04190220989648</v>
+        <v>1.031137461627849</v>
       </c>
       <c r="J8">
-        <v>1.012951722707298</v>
+        <v>1.02935839771674</v>
       </c>
       <c r="K8">
-        <v>1.022054233707308</v>
+        <v>1.031211198384715</v>
       </c>
       <c r="L8">
-        <v>1.010343394277661</v>
+        <v>1.030664349540807</v>
       </c>
       <c r="M8">
-        <v>1.011562806050149</v>
+        <v>1.037498579033087</v>
       </c>
       <c r="N8">
-        <v>1.014390230340729</v>
+        <v>1.030820204710557</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9783941773284723</v>
+        <v>1.021796512903834</v>
       </c>
       <c r="D9">
-        <v>1.001856770700592</v>
+        <v>1.026637201789162</v>
       </c>
       <c r="E9">
-        <v>0.9877561388709675</v>
+        <v>1.025526831290987</v>
       </c>
       <c r="F9">
-        <v>0.9860038257285181</v>
+        <v>1.031787686941411</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037906916864926</v>
+        <v>1.030576645717869</v>
       </c>
       <c r="J9">
-        <v>1.004733660787213</v>
+        <v>1.027686205118285</v>
       </c>
       <c r="K9">
-        <v>1.014919794756032</v>
+        <v>1.029830627802637</v>
       </c>
       <c r="L9">
-        <v>1.001051037684985</v>
+        <v>1.028723956717258</v>
       </c>
       <c r="M9">
-        <v>0.9993281374976837</v>
+        <v>1.034964067334035</v>
       </c>
       <c r="N9">
-        <v>1.006160497830093</v>
+        <v>1.029145637406809</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9694283019953435</v>
+        <v>1.020124297591927</v>
       </c>
       <c r="D10">
-        <v>0.9953921919727093</v>
+        <v>1.025420451461497</v>
       </c>
       <c r="E10">
-        <v>0.9797386986299101</v>
+        <v>1.023938900702906</v>
       </c>
       <c r="F10">
-        <v>0.9758351684624408</v>
+        <v>1.029802469068214</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035006332945551</v>
+        <v>1.030192891914797</v>
       </c>
       <c r="J10">
-        <v>0.9989096614478302</v>
+        <v>1.02656766233932</v>
       </c>
       <c r="K10">
-        <v>1.009845143199996</v>
+        <v>1.028904280316654</v>
       </c>
       <c r="L10">
-        <v>0.9944836738276365</v>
+        <v>1.027428152982919</v>
       </c>
       <c r="M10">
-        <v>0.9906548774741578</v>
+        <v>1.033270357818118</v>
       </c>
       <c r="N10">
-        <v>1.000328227743626</v>
+        <v>1.028025506168799</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9654104366024043</v>
+        <v>1.019399937720371</v>
       </c>
       <c r="D11">
-        <v>0.9924993893211824</v>
+        <v>1.02489297024439</v>
       </c>
       <c r="E11">
-        <v>0.9761551695896338</v>
+        <v>1.023251508391517</v>
       </c>
       <c r="F11">
-        <v>0.9712766925384733</v>
+        <v>1.028942518092808</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033689024433285</v>
+        <v>1.030024378942446</v>
       </c>
       <c r="J11">
-        <v>0.9962964999750447</v>
+        <v>1.026082425785628</v>
       </c>
       <c r="K11">
-        <v>1.007564156092001</v>
+        <v>1.028501743768798</v>
       </c>
       <c r="L11">
-        <v>0.9915412235784555</v>
+        <v>1.026866525184603</v>
       </c>
       <c r="M11">
-        <v>0.9867614076235379</v>
+        <v>1.032535983615893</v>
       </c>
       <c r="N11">
-        <v>0.997711355281815</v>
+        <v>1.027539580523543</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9638962215777568</v>
+        <v>1.019130834828998</v>
       </c>
       <c r="D12">
-        <v>0.9914099241923461</v>
+        <v>1.024696946916111</v>
       </c>
       <c r="E12">
-        <v>0.974806121347882</v>
+        <v>1.02299620841103</v>
       </c>
       <c r="F12">
-        <v>0.9695584246849293</v>
+        <v>1.028623040673978</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033190020896655</v>
+        <v>1.029961433252173</v>
       </c>
       <c r="J12">
-        <v>0.9953112463512669</v>
+        <v>1.02590205144498</v>
       </c>
       <c r="K12">
-        <v>1.006703567905263</v>
+        <v>1.028352009808723</v>
       </c>
       <c r="L12">
-        <v>0.9904324546026777</v>
+        <v>1.02665783037202</v>
       </c>
       <c r="M12">
-        <v>0.9852930370702928</v>
+        <v>1.032263054051764</v>
       </c>
       <c r="N12">
-        <v>0.9967247024848813</v>
+        <v>1.027358950030643</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9642220368238354</v>
+        <v>1.019188560298009</v>
       </c>
       <c r="D13">
-        <v>0.9916443097805695</v>
+        <v>1.024738998810412</v>
       </c>
       <c r="E13">
-        <v>0.9750963293993831</v>
+        <v>1.023050969862378</v>
       </c>
       <c r="F13">
-        <v>0.9699281615339189</v>
+        <v>1.028691572118302</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03329750585163</v>
+        <v>1.029974951268907</v>
       </c>
       <c r="J13">
-        <v>0.9955232628390231</v>
+        <v>1.025940748512562</v>
       </c>
       <c r="K13">
-        <v>1.006888783141093</v>
+        <v>1.028384137939082</v>
       </c>
       <c r="L13">
-        <v>0.9906710215156358</v>
+        <v>1.026702599805097</v>
       </c>
       <c r="M13">
-        <v>0.9856090351646666</v>
+        <v>1.032321605203291</v>
       </c>
       <c r="N13">
-        <v>0.9969370200603689</v>
+        <v>1.027397702052498</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9652857245978499</v>
+        <v>1.019377694484398</v>
       </c>
       <c r="D14">
-        <v>0.9924096441724708</v>
+        <v>1.02487676879935</v>
       </c>
       <c r="E14">
-        <v>0.9760440303669198</v>
+        <v>1.023230404645906</v>
       </c>
       <c r="F14">
-        <v>0.9711351813581809</v>
+        <v>1.028916111092129</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033647977391537</v>
+        <v>1.030019183023224</v>
       </c>
       <c r="J14">
-        <v>0.9962153620465695</v>
+        <v>1.026067518762001</v>
       </c>
       <c r="K14">
-        <v>1.00749329615471</v>
+        <v>1.02848937107966</v>
       </c>
       <c r="L14">
-        <v>0.9914499009184555</v>
+        <v>1.026849276067554</v>
       </c>
       <c r="M14">
-        <v>0.9866404926130521</v>
+        <v>1.032513426250582</v>
       </c>
       <c r="N14">
-        <v>0.9976301021281746</v>
+        <v>1.027524652330232</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9659381638422034</v>
+        <v>1.019494220508949</v>
       </c>
       <c r="D15">
-        <v>0.9928791831118682</v>
+        <v>1.024961641067027</v>
       </c>
       <c r="E15">
-        <v>0.9766255233556249</v>
+        <v>1.023340964043608</v>
       </c>
       <c r="F15">
-        <v>0.9718754934505195</v>
+        <v>1.029054449822677</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033862614446889</v>
+        <v>1.030046388956613</v>
       </c>
       <c r="J15">
-        <v>0.9966398234334419</v>
+        <v>1.026145608071956</v>
       </c>
       <c r="K15">
-        <v>1.00786396646183</v>
+        <v>1.028554180328548</v>
       </c>
       <c r="L15">
-        <v>0.9919276682342817</v>
+        <v>1.026939637368016</v>
       </c>
       <c r="M15">
-        <v>0.9872730252684895</v>
+        <v>1.032631593553246</v>
       </c>
       <c r="N15">
-        <v>0.9980551662989031</v>
+        <v>1.027602852535964</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9696919787471012</v>
+        <v>1.020172364962748</v>
       </c>
       <c r="D16">
-        <v>0.9955821318036101</v>
+        <v>1.02545544557324</v>
       </c>
       <c r="E16">
-        <v>0.9799740716603973</v>
+        <v>1.023984524651965</v>
       </c>
       <c r="F16">
-        <v>0.9761342841218943</v>
+        <v>1.029859533838605</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035092425984269</v>
+        <v>1.030204026145488</v>
       </c>
       <c r="J16">
-        <v>0.9990810901861503</v>
+        <v>1.026599846871533</v>
       </c>
       <c r="K16">
-        <v>1.009994699205921</v>
+        <v>1.028930965354474</v>
       </c>
       <c r="L16">
-        <v>0.994676792812744</v>
+        <v>1.027465415014644</v>
       </c>
       <c r="M16">
-        <v>0.9909102486963893</v>
+        <v>1.033319074851329</v>
       </c>
       <c r="N16">
-        <v>1.000499899930417</v>
+        <v>1.028057736406739</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9720093787279711</v>
+        <v>1.020597671235268</v>
       </c>
       <c r="D17">
-        <v>0.9972519592690419</v>
+        <v>1.025765029937762</v>
       </c>
       <c r="E17">
-        <v>0.9820437818227802</v>
+        <v>1.024388264138395</v>
       </c>
       <c r="F17">
-        <v>0.9787629589521116</v>
+        <v>1.03036444939224</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035847106406218</v>
+        <v>1.030302279848624</v>
       </c>
       <c r="J17">
-        <v>1.000587378612787</v>
+        <v>1.026884537423329</v>
       </c>
       <c r="K17">
-        <v>1.011308343770051</v>
+        <v>1.029166931715504</v>
       </c>
       <c r="L17">
-        <v>0.9963741481024168</v>
+        <v>1.027795077400509</v>
       </c>
       <c r="M17">
-        <v>0.9931538866512782</v>
+        <v>1.03375004808083</v>
       </c>
       <c r="N17">
-        <v>1.002008327459393</v>
+        <v>1.028342831251773</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9733481006281498</v>
+        <v>1.020845718303057</v>
       </c>
       <c r="D18">
-        <v>0.9982169745735828</v>
+        <v>1.025945545419294</v>
       </c>
       <c r="E18">
-        <v>0.9832402926647046</v>
+        <v>1.024623777135707</v>
       </c>
       <c r="F18">
-        <v>0.9802813518348136</v>
+        <v>1.030658925595058</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036281415402605</v>
+        <v>1.030359363319266</v>
       </c>
       <c r="J18">
-        <v>1.001457223102669</v>
+        <v>1.027050505797744</v>
       </c>
       <c r="K18">
-        <v>1.012066556499422</v>
+        <v>1.029304429724301</v>
       </c>
       <c r="L18">
-        <v>0.997354730467419</v>
+        <v>1.027987312200266</v>
       </c>
       <c r="M18">
-        <v>0.9944493628404686</v>
+        <v>1.034001332398519</v>
       </c>
       <c r="N18">
-        <v>1.002879407228224</v>
+        <v>1.028509035320317</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9738024101910454</v>
+        <v>1.020930291424572</v>
       </c>
       <c r="D19">
-        <v>0.9985445246036718</v>
+        <v>1.026007086387231</v>
       </c>
       <c r="E19">
-        <v>0.9836464875785819</v>
+        <v>1.024704084156193</v>
       </c>
       <c r="F19">
-        <v>0.9807966116911485</v>
+        <v>1.030759328933356</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036428519544244</v>
+        <v>1.030378788935878</v>
       </c>
       <c r="J19">
-        <v>1.001752359423155</v>
+        <v>1.027107082019723</v>
       </c>
       <c r="K19">
-        <v>1.012323750221699</v>
+        <v>1.029351289734219</v>
       </c>
       <c r="L19">
-        <v>0.9976875080274795</v>
+        <v>1.028052850551801</v>
       </c>
       <c r="M19">
-        <v>0.9948888895331829</v>
+        <v>1.034086997792251</v>
       </c>
       <c r="N19">
-        <v>1.003174962676138</v>
+        <v>1.028565691887019</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9717620959711831</v>
+        <v>1.020552042687856</v>
       </c>
       <c r="D20">
-        <v>0.997073736225923</v>
+        <v>1.025731820655662</v>
       </c>
       <c r="E20">
-        <v>0.9818228379096294</v>
+        <v>1.024344944795149</v>
       </c>
       <c r="F20">
-        <v>0.9784824767479676</v>
+        <v>1.030310280110666</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035766748218747</v>
+        <v>1.030291761559462</v>
       </c>
       <c r="J20">
-        <v>1.000426679130848</v>
+        <v>1.026854001804818</v>
       </c>
       <c r="K20">
-        <v>1.011168236356711</v>
+        <v>1.029141628949243</v>
       </c>
       <c r="L20">
-        <v>0.9961930228317806</v>
+        <v>1.027759713097918</v>
       </c>
       <c r="M20">
-        <v>0.992914540873046</v>
+        <v>1.033703818580463</v>
       </c>
       <c r="N20">
-        <v>1.001847399765758</v>
+        <v>1.028312252269182</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9649731090368894</v>
+        <v>1.019322000389209</v>
       </c>
       <c r="D21">
-        <v>0.9921846924753676</v>
+        <v>1.024836201548532</v>
       </c>
       <c r="E21">
-        <v>0.9757654617690857</v>
+        <v>1.023177564803843</v>
       </c>
       <c r="F21">
-        <v>0.9707804500183808</v>
+        <v>1.028849991453131</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033545044017585</v>
+        <v>1.030006167605161</v>
       </c>
       <c r="J21">
-        <v>0.9960119669013356</v>
+        <v>1.026030191839336</v>
       </c>
       <c r="K21">
-        <v>1.007315656541137</v>
+        <v>1.028458388451734</v>
       </c>
       <c r="L21">
-        <v>0.9912209851354129</v>
+        <v>1.026806085812232</v>
       </c>
       <c r="M21">
-        <v>0.9863373781995975</v>
+        <v>1.032456943898198</v>
       </c>
       <c r="N21">
-        <v>0.9974264181385051</v>
+        <v>1.027487272399056</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9605776606830616</v>
+        <v>1.018548372290175</v>
       </c>
       <c r="D22">
-        <v>0.9890237642366524</v>
+        <v>1.024272550289347</v>
       </c>
       <c r="E22">
-        <v>0.9718523545201395</v>
+        <v>1.02244374905419</v>
       </c>
       <c r="F22">
-        <v>0.9657919996276685</v>
+        <v>1.027931540189022</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032091797721585</v>
+        <v>1.029824563992348</v>
       </c>
       <c r="J22">
-        <v>0.9931512372593855</v>
+        <v>1.025511443337651</v>
       </c>
       <c r="K22">
-        <v>1.004815844180031</v>
+        <v>1.02802756993953</v>
       </c>
       <c r="L22">
-        <v>0.9880028330852642</v>
+        <v>1.026206032106899</v>
       </c>
       <c r="M22">
-        <v>0.9820730097474479</v>
+        <v>1.031672113767756</v>
       </c>
       <c r="N22">
-        <v>0.9945616259323328</v>
+        <v>1.026967787214996</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9629203174601071</v>
+        <v>1.01895851150088</v>
       </c>
       <c r="D23">
-        <v>0.9907079957339727</v>
+        <v>1.024571403715004</v>
       </c>
       <c r="E23">
-        <v>0.9739370933585149</v>
+        <v>1.022832743521904</v>
       </c>
       <c r="F23">
-        <v>0.9684509118599334</v>
+        <v>1.028418458779641</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032867707166733</v>
+        <v>1.029921028863848</v>
       </c>
       <c r="J23">
-        <v>0.9946761418312758</v>
+        <v>1.025786516498964</v>
       </c>
       <c r="K23">
-        <v>1.006148665854862</v>
+        <v>1.028256072452904</v>
       </c>
       <c r="L23">
-        <v>0.9897179106541437</v>
+        <v>1.026524176745019</v>
       </c>
       <c r="M23">
-        <v>0.9843463839116514</v>
+        <v>1.032088250266598</v>
       </c>
       <c r="N23">
-        <v>0.9960886960436247</v>
+        <v>1.02724325101175</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9718738724059974</v>
+        <v>1.020572660347022</v>
       </c>
       <c r="D24">
-        <v>0.9971542951924584</v>
+        <v>1.02574682668549</v>
       </c>
       <c r="E24">
-        <v>0.9819227059847723</v>
+        <v>1.024364518883983</v>
       </c>
       <c r="F24">
-        <v>0.9786092604056634</v>
+        <v>1.030334756977052</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035803076770308</v>
+        <v>1.030296515020538</v>
       </c>
       <c r="J24">
-        <v>1.000499319278192</v>
+        <v>1.026867799804398</v>
       </c>
       <c r="K24">
-        <v>1.011231569575052</v>
+        <v>1.02915306260383</v>
       </c>
       <c r="L24">
-        <v>0.9962748946957649</v>
+        <v>1.027775692863468</v>
       </c>
       <c r="M24">
-        <v>0.9930227316124313</v>
+        <v>1.033724707994936</v>
       </c>
       <c r="N24">
-        <v>1.001920143070443</v>
+        <v>1.028326069863503</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9817588887873638</v>
+        <v>1.022444740317305</v>
       </c>
       <c r="D25">
-        <v>1.004285635542269</v>
+        <v>1.027108492452672</v>
       </c>
       <c r="E25">
-        <v>0.9907724514643615</v>
+        <v>1.026142790448508</v>
       </c>
       <c r="F25">
-        <v>0.9898189461150637</v>
+        <v>1.032557248190971</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038979976793398</v>
+        <v>1.030723370818177</v>
       </c>
       <c r="J25">
-        <v>1.006916128936256</v>
+        <v>1.028119165735809</v>
       </c>
       <c r="K25">
-        <v>1.016817784845726</v>
+        <v>1.030188589560907</v>
       </c>
       <c r="L25">
-        <v>1.003515722355249</v>
+        <v>1.029225982128866</v>
       </c>
       <c r="M25">
-        <v>1.002577392990285</v>
+        <v>1.035620003516613</v>
       </c>
       <c r="N25">
-        <v>1.00834606533424</v>
+        <v>1.02957921287807</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_102/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_102/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023937109182996</v>
+        <v>0.9892820813855426</v>
       </c>
       <c r="D2">
-        <v>1.028192664279999</v>
+        <v>1.009720730942823</v>
       </c>
       <c r="E2">
-        <v>1.027561751191078</v>
+        <v>0.9975318946475887</v>
       </c>
       <c r="F2">
-        <v>1.034328969650337</v>
+        <v>0.9983480673378503</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031056677312877</v>
+        <v>1.04134440969551</v>
       </c>
       <c r="J2">
-        <v>1.029114530096275</v>
+        <v>1.01178815858496</v>
       </c>
       <c r="K2">
-        <v>1.031010195307241</v>
+        <v>1.021046281538547</v>
       </c>
       <c r="L2">
-        <v>1.030381119595177</v>
+        <v>1.009025721529081</v>
       </c>
       <c r="M2">
-        <v>1.037128757269461</v>
+        <v>1.009830464282867</v>
       </c>
       <c r="N2">
-        <v>1.030575990770102</v>
+        <v>1.013225013823874</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025020265068463</v>
+        <v>0.9945553687536018</v>
       </c>
       <c r="D3">
-        <v>1.028978776059872</v>
+        <v>1.013533072673712</v>
       </c>
       <c r="E3">
-        <v>1.028592414181948</v>
+        <v>1.002282715978591</v>
       </c>
       <c r="F3">
-        <v>1.035614902369841</v>
+        <v>1.004326050979737</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031294541125095</v>
+        <v>1.042969716332075</v>
       </c>
       <c r="J3">
-        <v>1.029835686314637</v>
+        <v>1.015195568444475</v>
       </c>
       <c r="K3">
-        <v>1.031604249765691</v>
+        <v>1.0239956747813</v>
       </c>
       <c r="L3">
-        <v>1.031218931341415</v>
+        <v>1.012886472113468</v>
       </c>
       <c r="M3">
-        <v>1.038222585196461</v>
+        <v>1.014903876816142</v>
       </c>
       <c r="N3">
-        <v>1.031298171113008</v>
+        <v>1.016637262596225</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025720946000182</v>
+        <v>0.9978859742614595</v>
       </c>
       <c r="D4">
-        <v>1.029486937832025</v>
+        <v>1.015941655233532</v>
       </c>
       <c r="E4">
-        <v>1.029259498675032</v>
+        <v>1.005288962913666</v>
       </c>
       <c r="F4">
-        <v>1.036446773265837</v>
+        <v>1.008101818480419</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031446536856227</v>
+        <v>1.043981082607015</v>
       </c>
       <c r="J4">
-        <v>1.030301601551921</v>
+        <v>1.017343912060491</v>
       </c>
       <c r="K4">
-        <v>1.031987485753661</v>
+        <v>1.025851411788985</v>
       </c>
       <c r="L4">
-        <v>1.031760629780278</v>
+        <v>1.015323971195606</v>
       </c>
       <c r="M4">
-        <v>1.03892960864476</v>
+        <v>1.018103435326616</v>
       </c>
       <c r="N4">
-        <v>1.03176474800337</v>
+        <v>1.018788657106594</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026015466899278</v>
+        <v>0.9992674599018523</v>
       </c>
       <c r="D5">
-        <v>1.029700447958536</v>
+        <v>1.016940794776371</v>
       </c>
       <c r="E5">
-        <v>1.029539983650587</v>
+        <v>1.006537215524595</v>
       </c>
       <c r="F5">
-        <v>1.036796442503283</v>
+        <v>1.009668004438343</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031509976635423</v>
+        <v>1.044396886438286</v>
       </c>
       <c r="J5">
-        <v>1.030497300024079</v>
+        <v>1.018234068684607</v>
       </c>
       <c r="K5">
-        <v>1.032148321233604</v>
+        <v>1.026619385540407</v>
       </c>
       <c r="L5">
-        <v>1.031988259174042</v>
+        <v>1.01633474007535</v>
       </c>
       <c r="M5">
-        <v>1.039226661693735</v>
+        <v>1.019429419508125</v>
       </c>
       <c r="N5">
-        <v>1.031960724389806</v>
+        <v>1.019680077855219</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026064915620821</v>
+        <v>0.9994983438459119</v>
       </c>
       <c r="D6">
-        <v>1.029736290143208</v>
+        <v>1.017107781735246</v>
       </c>
       <c r="E6">
-        <v>1.029587080824179</v>
+        <v>1.006745908124189</v>
       </c>
       <c r="F6">
-        <v>1.036855150670019</v>
+        <v>1.009929760989059</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031520601523029</v>
+        <v>1.044466159734384</v>
       </c>
       <c r="J6">
-        <v>1.030530148564763</v>
+        <v>1.018382781516573</v>
       </c>
       <c r="K6">
-        <v>1.032175309980485</v>
+        <v>1.026747629945309</v>
       </c>
       <c r="L6">
-        <v>1.032026473259847</v>
+        <v>1.016503650102573</v>
       </c>
       <c r="M6">
-        <v>1.039276527717913</v>
+        <v>1.019650960524072</v>
       </c>
       <c r="N6">
-        <v>1.031993619579185</v>
+        <v>1.019829001876464</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025724881579952</v>
+        <v>0.9979045061669035</v>
       </c>
       <c r="D7">
-        <v>1.029489791240775</v>
+        <v>1.015955057886536</v>
       </c>
       <c r="E7">
-        <v>1.029263246360946</v>
+        <v>1.005305702462179</v>
       </c>
       <c r="F7">
-        <v>1.036451445754685</v>
+        <v>1.008122827786329</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03144738634617</v>
+        <v>1.043986675079321</v>
       </c>
       <c r="J7">
-        <v>1.030304217161084</v>
+        <v>1.017355856828337</v>
       </c>
       <c r="K7">
-        <v>1.031989635933315</v>
+        <v>1.025861720777238</v>
       </c>
       <c r="L7">
-        <v>1.031763671770366</v>
+        <v>1.015337531249507</v>
       </c>
       <c r="M7">
-        <v>1.038933578586068</v>
+        <v>1.018121227226405</v>
       </c>
       <c r="N7">
-        <v>1.031767367326998</v>
+        <v>1.018800618837381</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024303207379277</v>
+        <v>0.9910816156744582</v>
       </c>
       <c r="D8">
-        <v>1.028458438932744</v>
+        <v>1.011021514562805</v>
       </c>
       <c r="E8">
-        <v>1.027910032229829</v>
+        <v>0.9991519229822317</v>
       </c>
       <c r="F8">
-        <v>1.034763601962217</v>
+        <v>1.00038808911326</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031137461627849</v>
+        <v>1.04190220989648</v>
       </c>
       <c r="J8">
-        <v>1.02935839771674</v>
+        <v>1.012951722707297</v>
       </c>
       <c r="K8">
-        <v>1.031211198384715</v>
+        <v>1.022054233707308</v>
       </c>
       <c r="L8">
-        <v>1.030664349540807</v>
+        <v>1.01034339427766</v>
       </c>
       <c r="M8">
-        <v>1.037498579033087</v>
+        <v>1.011562806050149</v>
       </c>
       <c r="N8">
-        <v>1.030820204710557</v>
+        <v>1.014390230340728</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021796512903834</v>
+        <v>0.9783941773284719</v>
       </c>
       <c r="D9">
-        <v>1.026637201789162</v>
+        <v>1.001856770700592</v>
       </c>
       <c r="E9">
-        <v>1.025526831290987</v>
+        <v>0.9877561388709664</v>
       </c>
       <c r="F9">
-        <v>1.031787686941411</v>
+        <v>0.9860038257285182</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030576645717869</v>
+        <v>1.037906916864926</v>
       </c>
       <c r="J9">
-        <v>1.027686205118285</v>
+        <v>1.004733660787213</v>
       </c>
       <c r="K9">
-        <v>1.029830627802637</v>
+        <v>1.014919794756032</v>
       </c>
       <c r="L9">
-        <v>1.028723956717258</v>
+        <v>1.001051037684984</v>
       </c>
       <c r="M9">
-        <v>1.034964067334035</v>
+        <v>0.9993281374976839</v>
       </c>
       <c r="N9">
-        <v>1.029145637406809</v>
+        <v>1.006160497830092</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020124297591927</v>
+        <v>0.969428301995344</v>
       </c>
       <c r="D10">
-        <v>1.025420451461497</v>
+        <v>0.99539219197271</v>
       </c>
       <c r="E10">
-        <v>1.023938900702906</v>
+        <v>0.9797386986299109</v>
       </c>
       <c r="F10">
-        <v>1.029802469068214</v>
+        <v>0.9758351684624416</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030192891914797</v>
+        <v>1.035006332945551</v>
       </c>
       <c r="J10">
-        <v>1.02656766233932</v>
+        <v>0.9989096614478308</v>
       </c>
       <c r="K10">
-        <v>1.028904280316654</v>
+        <v>1.009845143199996</v>
       </c>
       <c r="L10">
-        <v>1.027428152982919</v>
+        <v>0.9944836738276372</v>
       </c>
       <c r="M10">
-        <v>1.033270357818118</v>
+        <v>0.9906548774741583</v>
       </c>
       <c r="N10">
-        <v>1.028025506168799</v>
+        <v>1.000328227743627</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019399937720371</v>
+        <v>0.9654104366024047</v>
       </c>
       <c r="D11">
-        <v>1.02489297024439</v>
+        <v>0.9924993893211821</v>
       </c>
       <c r="E11">
-        <v>1.023251508391517</v>
+        <v>0.9761551695896346</v>
       </c>
       <c r="F11">
-        <v>1.028942518092808</v>
+        <v>0.9712766925384732</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030024378942446</v>
+        <v>1.033689024433285</v>
       </c>
       <c r="J11">
-        <v>1.026082425785628</v>
+        <v>0.9962964999750447</v>
       </c>
       <c r="K11">
-        <v>1.028501743768798</v>
+        <v>1.007564156092001</v>
       </c>
       <c r="L11">
-        <v>1.026866525184603</v>
+        <v>0.9915412235784561</v>
       </c>
       <c r="M11">
-        <v>1.032535983615893</v>
+        <v>0.9867614076235378</v>
       </c>
       <c r="N11">
-        <v>1.027539580523543</v>
+        <v>0.9977113552818149</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.019130834828998</v>
+        <v>0.963896221577757</v>
       </c>
       <c r="D12">
-        <v>1.024696946916111</v>
+        <v>0.9914099241923465</v>
       </c>
       <c r="E12">
-        <v>1.02299620841103</v>
+        <v>0.9748061213478819</v>
       </c>
       <c r="F12">
-        <v>1.028623040673978</v>
+        <v>0.9695584246849294</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029961433252173</v>
+        <v>1.033190020896655</v>
       </c>
       <c r="J12">
-        <v>1.02590205144498</v>
+        <v>0.9953112463512673</v>
       </c>
       <c r="K12">
-        <v>1.028352009808723</v>
+        <v>1.006703567905263</v>
       </c>
       <c r="L12">
-        <v>1.02665783037202</v>
+        <v>0.9904324546026779</v>
       </c>
       <c r="M12">
-        <v>1.032263054051764</v>
+        <v>0.9852930370702931</v>
       </c>
       <c r="N12">
-        <v>1.027358950030643</v>
+        <v>0.996724702484882</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019188560298009</v>
+        <v>0.9642220368238363</v>
       </c>
       <c r="D13">
-        <v>1.024738998810412</v>
+        <v>0.9916443097805705</v>
       </c>
       <c r="E13">
-        <v>1.023050969862378</v>
+        <v>0.9750963293993841</v>
       </c>
       <c r="F13">
-        <v>1.028691572118302</v>
+        <v>0.96992816153392</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029974951268907</v>
+        <v>1.03329750585163</v>
       </c>
       <c r="J13">
-        <v>1.025940748512562</v>
+        <v>0.9955232628390241</v>
       </c>
       <c r="K13">
-        <v>1.028384137939082</v>
+        <v>1.006888783141094</v>
       </c>
       <c r="L13">
-        <v>1.026702599805097</v>
+        <v>0.9906710215156368</v>
       </c>
       <c r="M13">
-        <v>1.032321605203291</v>
+        <v>0.9856090351646678</v>
       </c>
       <c r="N13">
-        <v>1.027397702052498</v>
+        <v>0.9969370200603698</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.019377694484398</v>
+        <v>0.9652857245978516</v>
       </c>
       <c r="D14">
-        <v>1.02487676879935</v>
+        <v>0.992409644172472</v>
       </c>
       <c r="E14">
-        <v>1.023230404645906</v>
+        <v>0.9760440303669212</v>
       </c>
       <c r="F14">
-        <v>1.028916111092129</v>
+        <v>0.9711351813581821</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030019183023224</v>
+        <v>1.033647977391537</v>
       </c>
       <c r="J14">
-        <v>1.026067518762001</v>
+        <v>0.9962153620465709</v>
       </c>
       <c r="K14">
-        <v>1.02848937107966</v>
+        <v>1.007493296154711</v>
       </c>
       <c r="L14">
-        <v>1.026849276067554</v>
+        <v>0.9914499009184572</v>
       </c>
       <c r="M14">
-        <v>1.032513426250582</v>
+        <v>0.9866404926130534</v>
       </c>
       <c r="N14">
-        <v>1.027524652330232</v>
+        <v>0.9976301021281762</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.019494220508949</v>
+        <v>0.9659381638422038</v>
       </c>
       <c r="D15">
-        <v>1.024961641067027</v>
+        <v>0.992879183111868</v>
       </c>
       <c r="E15">
-        <v>1.023340964043608</v>
+        <v>0.9766255233556251</v>
       </c>
       <c r="F15">
-        <v>1.029054449822677</v>
+        <v>0.9718754934505194</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030046388956613</v>
+        <v>1.03386261444689</v>
       </c>
       <c r="J15">
-        <v>1.026145608071956</v>
+        <v>0.996639823433442</v>
       </c>
       <c r="K15">
-        <v>1.028554180328548</v>
+        <v>1.00786396646183</v>
       </c>
       <c r="L15">
-        <v>1.026939637368016</v>
+        <v>0.991927668234282</v>
       </c>
       <c r="M15">
-        <v>1.032631593553246</v>
+        <v>0.9872730252684894</v>
       </c>
       <c r="N15">
-        <v>1.027602852535964</v>
+        <v>0.9980551662989032</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020172364962748</v>
+        <v>0.9696919787471009</v>
       </c>
       <c r="D16">
-        <v>1.02545544557324</v>
+        <v>0.9955821318036098</v>
       </c>
       <c r="E16">
-        <v>1.023984524651965</v>
+        <v>0.9799740716603971</v>
       </c>
       <c r="F16">
-        <v>1.029859533838605</v>
+        <v>0.9761342841218938</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030204026145488</v>
+        <v>1.035092425984269</v>
       </c>
       <c r="J16">
-        <v>1.026599846871533</v>
+        <v>0.9990810901861501</v>
       </c>
       <c r="K16">
-        <v>1.028930965354474</v>
+        <v>1.009994699205921</v>
       </c>
       <c r="L16">
-        <v>1.027465415014644</v>
+        <v>0.9946767928127437</v>
       </c>
       <c r="M16">
-        <v>1.033319074851329</v>
+        <v>0.9909102486963889</v>
       </c>
       <c r="N16">
-        <v>1.028057736406739</v>
+        <v>1.000499899930417</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.020597671235268</v>
+        <v>0.9720093787279694</v>
       </c>
       <c r="D17">
-        <v>1.025765029937762</v>
+        <v>0.9972519592690408</v>
       </c>
       <c r="E17">
-        <v>1.024388264138395</v>
+        <v>0.9820437818227791</v>
       </c>
       <c r="F17">
-        <v>1.03036444939224</v>
+        <v>0.9787629589521103</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030302279848624</v>
+        <v>1.035847106406218</v>
       </c>
       <c r="J17">
-        <v>1.026884537423329</v>
+        <v>1.000587378612786</v>
       </c>
       <c r="K17">
-        <v>1.029166931715504</v>
+        <v>1.011308343770049</v>
       </c>
       <c r="L17">
-        <v>1.027795077400509</v>
+        <v>0.9963741481024155</v>
       </c>
       <c r="M17">
-        <v>1.03375004808083</v>
+        <v>0.993153886651277</v>
       </c>
       <c r="N17">
-        <v>1.028342831251773</v>
+        <v>1.002008327459392</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020845718303057</v>
+        <v>0.9733481006281505</v>
       </c>
       <c r="D18">
-        <v>1.025945545419294</v>
+        <v>0.9982169745735833</v>
       </c>
       <c r="E18">
-        <v>1.024623777135707</v>
+        <v>0.9832402926647051</v>
       </c>
       <c r="F18">
-        <v>1.030658925595058</v>
+        <v>0.9802813518348141</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030359363319266</v>
+        <v>1.036281415402605</v>
       </c>
       <c r="J18">
-        <v>1.027050505797744</v>
+        <v>1.001457223102669</v>
       </c>
       <c r="K18">
-        <v>1.029304429724301</v>
+        <v>1.012066556499422</v>
       </c>
       <c r="L18">
-        <v>1.027987312200266</v>
+        <v>0.9973547304674196</v>
       </c>
       <c r="M18">
-        <v>1.034001332398519</v>
+        <v>0.994449362840469</v>
       </c>
       <c r="N18">
-        <v>1.028509035320317</v>
+        <v>1.002879407228225</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.020930291424572</v>
+        <v>0.9738024101910444</v>
       </c>
       <c r="D19">
-        <v>1.026007086387231</v>
+        <v>0.998544524603671</v>
       </c>
       <c r="E19">
-        <v>1.024704084156193</v>
+        <v>0.9836464875785809</v>
       </c>
       <c r="F19">
-        <v>1.030759328933356</v>
+        <v>0.9807966116911476</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030378788935878</v>
+        <v>1.036428519544243</v>
       </c>
       <c r="J19">
-        <v>1.027107082019723</v>
+        <v>1.001752359423155</v>
       </c>
       <c r="K19">
-        <v>1.029351289734219</v>
+        <v>1.012323750221699</v>
       </c>
       <c r="L19">
-        <v>1.028052850551801</v>
+        <v>0.9976875080274785</v>
       </c>
       <c r="M19">
-        <v>1.034086997792251</v>
+        <v>0.9948888895331823</v>
       </c>
       <c r="N19">
-        <v>1.028565691887019</v>
+        <v>1.003174962676137</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.020552042687856</v>
+        <v>0.9717620959711841</v>
       </c>
       <c r="D20">
-        <v>1.025731820655662</v>
+        <v>0.997073736225924</v>
       </c>
       <c r="E20">
-        <v>1.024344944795149</v>
+        <v>0.9818228379096305</v>
       </c>
       <c r="F20">
-        <v>1.030310280110666</v>
+        <v>0.9784824767479685</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030291761559462</v>
+        <v>1.035766748218748</v>
       </c>
       <c r="J20">
-        <v>1.026854001804818</v>
+        <v>1.000426679130849</v>
       </c>
       <c r="K20">
-        <v>1.029141628949243</v>
+        <v>1.011168236356712</v>
       </c>
       <c r="L20">
-        <v>1.027759713097918</v>
+        <v>0.9961930228317816</v>
       </c>
       <c r="M20">
-        <v>1.033703818580463</v>
+        <v>0.992914540873047</v>
       </c>
       <c r="N20">
-        <v>1.028312252269182</v>
+        <v>1.001847399765759</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019322000389209</v>
+        <v>0.9649731090368887</v>
       </c>
       <c r="D21">
-        <v>1.024836201548532</v>
+        <v>0.9921846924753668</v>
       </c>
       <c r="E21">
-        <v>1.023177564803843</v>
+        <v>0.9757654617690854</v>
       </c>
       <c r="F21">
-        <v>1.028849991453131</v>
+        <v>0.9707804500183803</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030006167605161</v>
+        <v>1.033545044017584</v>
       </c>
       <c r="J21">
-        <v>1.026030191839336</v>
+        <v>0.9960119669013351</v>
       </c>
       <c r="K21">
-        <v>1.028458388451734</v>
+        <v>1.007315656541136</v>
       </c>
       <c r="L21">
-        <v>1.026806085812232</v>
+        <v>0.9912209851354123</v>
       </c>
       <c r="M21">
-        <v>1.032456943898198</v>
+        <v>0.986337378199597</v>
       </c>
       <c r="N21">
-        <v>1.027487272399056</v>
+        <v>0.9974264181385044</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018548372290175</v>
+        <v>0.9605776606830615</v>
       </c>
       <c r="D22">
-        <v>1.024272550289347</v>
+        <v>0.9890237642366525</v>
       </c>
       <c r="E22">
-        <v>1.02244374905419</v>
+        <v>0.9718523545201397</v>
       </c>
       <c r="F22">
-        <v>1.027931540189022</v>
+        <v>0.9657919996276686</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029824563992348</v>
+        <v>1.032091797721585</v>
       </c>
       <c r="J22">
-        <v>1.025511443337651</v>
+        <v>0.9931512372593856</v>
       </c>
       <c r="K22">
-        <v>1.02802756993953</v>
+        <v>1.004815844180031</v>
       </c>
       <c r="L22">
-        <v>1.026206032106899</v>
+        <v>0.9880028330852643</v>
       </c>
       <c r="M22">
-        <v>1.031672113767756</v>
+        <v>0.9820730097474482</v>
       </c>
       <c r="N22">
-        <v>1.026967787214996</v>
+        <v>0.9945616259323331</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01895851150088</v>
+        <v>0.9629203174601071</v>
       </c>
       <c r="D23">
-        <v>1.024571403715004</v>
+        <v>0.9907079957339728</v>
       </c>
       <c r="E23">
-        <v>1.022832743521904</v>
+        <v>0.973937093358515</v>
       </c>
       <c r="F23">
-        <v>1.028418458779641</v>
+        <v>0.9684509118599332</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029921028863848</v>
+        <v>1.032867707166733</v>
       </c>
       <c r="J23">
-        <v>1.025786516498964</v>
+        <v>0.9946761418312761</v>
       </c>
       <c r="K23">
-        <v>1.028256072452904</v>
+        <v>1.006148665854862</v>
       </c>
       <c r="L23">
-        <v>1.026524176745019</v>
+        <v>0.9897179106541438</v>
       </c>
       <c r="M23">
-        <v>1.032088250266598</v>
+        <v>0.9843463839116513</v>
       </c>
       <c r="N23">
-        <v>1.02724325101175</v>
+        <v>0.9960886960436245</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.020572660347022</v>
+        <v>0.9718738724059981</v>
       </c>
       <c r="D24">
-        <v>1.02574682668549</v>
+        <v>0.9971542951924589</v>
       </c>
       <c r="E24">
-        <v>1.024364518883983</v>
+        <v>0.9819227059847726</v>
       </c>
       <c r="F24">
-        <v>1.030334756977052</v>
+        <v>0.9786092604056638</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030296515020538</v>
+        <v>1.035803076770308</v>
       </c>
       <c r="J24">
-        <v>1.026867799804398</v>
+        <v>1.000499319278193</v>
       </c>
       <c r="K24">
-        <v>1.02915306260383</v>
+        <v>1.011231569575053</v>
       </c>
       <c r="L24">
-        <v>1.027775692863468</v>
+        <v>0.9962748946957654</v>
       </c>
       <c r="M24">
-        <v>1.033724707994936</v>
+        <v>0.9930227316124315</v>
       </c>
       <c r="N24">
-        <v>1.028326069863503</v>
+        <v>1.001920143070444</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022444740317305</v>
+        <v>0.9817588887873648</v>
       </c>
       <c r="D25">
-        <v>1.027108492452672</v>
+        <v>1.00428563554227</v>
       </c>
       <c r="E25">
-        <v>1.026142790448508</v>
+        <v>0.9907724514643624</v>
       </c>
       <c r="F25">
-        <v>1.032557248190971</v>
+        <v>0.9898189461150648</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030723370818177</v>
+        <v>1.038979976793399</v>
       </c>
       <c r="J25">
-        <v>1.028119165735809</v>
+        <v>1.006916128936257</v>
       </c>
       <c r="K25">
-        <v>1.030188589560907</v>
+        <v>1.016817784845727</v>
       </c>
       <c r="L25">
-        <v>1.029225982128866</v>
+        <v>1.00351572235525</v>
       </c>
       <c r="M25">
-        <v>1.035620003516613</v>
+        <v>1.002577392990286</v>
       </c>
       <c r="N25">
-        <v>1.02957921287807</v>
+        <v>1.008346065334241</v>
       </c>
     </row>
   </sheetData>
